--- a/minutes_of_meeting/minutes_of_meeting.xlsx
+++ b/minutes_of_meeting/minutes_of_meeting.xlsx
@@ -1,43 +1,562 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="22820" windowHeight="11560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Challenges Faced</t>
+  </si>
+  <si>
+    <t>Points Discussed</t>
+  </si>
+  <si>
+    <t>Action Plan</t>
+  </si>
+  <si>
+    <t>03-06-2025</t>
+  </si>
+  <si>
+    <t>1. Defining scope clearly for AI Operator agent with MCP &amp; browser automation.
+2. Complex architecture requiring MCP integration, UI, DevOps, and backend communication.
+3. Need for cross-platform compatibility (Electron desktop + hosted web).
+4. Deciding initial tech stack and tools.</t>
+  </si>
+  <si>
+    <t>1. Decided on Node.js + Electron for desktop, Python backend for automation scripts.
+2. UI in React, Electron window management.
+3. MCP (Model Control Plane) for structured action execution.
+4. Early plan to use Selenium for DOM extraction.
+5. Docker setup for microservices where applicable.
+6. Assigned tasks based on roles (UI, Backend, MCP, DevOps, Project Management).</t>
+  </si>
+  <si>
+    <t>1. Create repo, initial sprint plan, and assign tickets in Jira.
+2. Set up Electron scaffold and basic window navigation.
+3. Research MCP API and action execution flows.</t>
+  </si>
+  <si>
+    <t>10-06-2025</t>
+  </si>
+  <si>
+    <t>1. MCP tool creation and API schema definition took more time than expected.
+2. Docker setup for multi-service execution was inconsistent across members.
+3. Early Selenium tests showed delays in dynamic content loading.</t>
+  </si>
+  <si>
+    <t>1. MCP tools creation completed.
+2. UI layout prototyping started.
+3. Docker file created for Node.js + Python combination.
+4. Selenium scripts for automation initiated.</t>
+  </si>
+  <si>
+    <t>1. Continue Selenium prototype for DOM extraction.
+2. Implement MCP action parser logic.
+3. UI to integrate basic chat and display logs.</t>
+  </si>
+  <si>
+    <t>17-06-2025</t>
+  </si>
+  <si>
+    <t>1. MCP server and tool integration took longer due to API structure changes.
+2. UI chat integration faced websocket connection drops.
+3. Browser automation scripts not stable for some non-standard sites.</t>
+  </si>
+  <si>
+    <t>1. MCP server running with Node.js.
+2. Chat UI integration completed.
+3. Browser automation testing with Selenium in progress.
+4. Docker setup now stable for dev environments.</t>
+  </si>
+  <si>
+    <t>1. Connect MCP output to UI.
+2. Continue Selenium automation testing.
+3. Start preparing slides for interim presentation.</t>
+  </si>
+  <si>
+    <t>24-06-2025</t>
+  </si>
+  <si>
+    <t>1. Need to polish UI for demo purposes.
+2. Browser automation flaky for certain layouts.
+3. Tight schedule for interim presentation and MCP testing.</t>
+  </si>
+  <si>
+    <t>1. MCP integration demo-ready.
+2. UI chat functional.
+3. Selenium automation showcased in interim PPT.
+4. Discussion on making automation more resilient.</t>
+  </si>
+  <si>
+    <t>1. Finalize interim PPT &amp; rehearse.
+2. Run full MCP + UI + browser demo.</t>
+  </si>
+  <si>
+    <t>01-07-2025</t>
+  </si>
+  <si>
+    <t>1. Selenium DOM extraction failing for sites with heavy JS rendering.
+2. MCP execution slower than expected due to multiple retries.</t>
+  </si>
+  <si>
+    <t>1. Consider switching to alternative DOM extraction methods.
+2. Discussed AI model–driven DOM parsing, but models not fully updated with modern frontends.</t>
+  </si>
+  <si>
+    <t>1. Research Browser-use library with image processing–based DOM extraction.
+2. Start proof of concept.</t>
+  </si>
+  <si>
+    <t>08-07-2025</t>
+  </si>
+  <si>
+    <t>1. AI model DOM extraction attempts inaccurate for dynamic content.
+2. Selenium automation failing for SPAs and shadow DOM elements.</t>
+  </si>
+  <si>
+    <t>1. Decided to switch from Selenium + MCP DOM extraction to Browser-use with image processing for reliability.
+2. Browser-use bypasses DOM parsing issues by working visually.</t>
+  </si>
+  <si>
+    <t>1. Replace Selenium scripts with Browser-use implementation.
+2. Adjust MCP to trigger Browser-use actions.
+3. Update documentation to reflect architectural change.</t>
+  </si>
+  <si>
+    <t>15-07-2025</t>
+  </si>
+  <si>
+    <t>1. Adapting existing automation flow to use Browser-use API directly instead of MCP integration.
+2. Initial Browser-use setup required fine-tuning image processing thresholds for accurate element detection.</t>
+  </si>
+  <si>
+    <t>1. Successful first run of Browser-use API–based automation.
+2. DOM extraction now reliable for previously failing pages.
+3. Decision to avoid MCP for Browser-use integration to maximize performance and reduce complexity.</t>
+  </si>
+  <si>
+    <t>1. Test Browser-use across various websites and scenarios.
+2. Prepare final presentation with updated architecture diagram showing Browser-use as the primary automation engine.</t>
+  </si>
+  <si>
+    <t>22-07-2025</t>
+  </si>
+  <si>
+    <t>1. Reviewing the entire AI Operator workflow to ensure all planned features were implemented.
+2. Evaluating project performance, stability, and usability before final submission.
+3. Identifying areas for improvement based on team feedback.</t>
+  </si>
+  <si>
+    <t>1. Conducted a full evaluation of the AI Operator system, covering UI, automation reliability, and cross-platform performance.
+2. Discussed strengths of the final solution and possible enhancements for future versions.
+3. Finalized documentation with lessons learned and technical decisions made during the project.
+4. Outlined talking points for the final presentation.</t>
+  </si>
+  <si>
+    <t>1. Finalize evaluation report and integrate feedback into the closing documentation.
+2. Prepare and rehearse final presentation.
+3. Conduct one last end-to-end demo to confirm readiness for submission.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,24 +564,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -79,44 +911,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +975,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +1009,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +1020,314 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="122.0078125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="76.6875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="71" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="102" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="62" customHeight="1" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="58" customHeight="1" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="66" customHeight="1" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>